--- a/pred_ohlcv/54_21/2020-01-24 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 LUNA ohlcv.xlsx
@@ -11936,7 +11936,7 @@
         <v>-65580.2326000001</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-69980.44250000011</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-72625.0052000001</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-75818.6004000001</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-79494.1045000001</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-86201.55540000016</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-84383.97720000015</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-89899.68430000015</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-90077.77850000016</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-90077.77850000016</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-90077.77850000016</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-92793.33010000017</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-98833.46640000016</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-69158.96173964006</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-62030.86303964005</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-99732.66160956005</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-94141.80210956004</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-89924.38950956005</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-91739.03370956004</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-107587.63530956</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-102314.02830956</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-92434.02780956004</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-64005.85470956004</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-10607.76580956004</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-8231.349809560041</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-27449.75790956004</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-27449.75790956004</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-182436.9906571301</v>
       </c>
       <c r="H1216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-182526.0432571301</v>
       </c>
       <c r="H1217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-182526.0432571301</v>
       </c>
       <c r="H1218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-182704.2233571301</v>
       </c>
       <c r="H1219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-182600.4530571301</v>
       </c>
       <c r="H1220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-182867.6450571301</v>
       </c>
       <c r="H1221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-193122.0581571301</v>
       </c>
       <c r="H1222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-188984.2427571301</v>
       </c>
       <c r="H1223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-187888.9067571301</v>
       </c>
       <c r="H1224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-175738.3293571301</v>
       </c>
       <c r="H1225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-177311.0642571301</v>
       </c>
       <c r="H1226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-172519.3186571301</v>
       </c>
       <c r="H1227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-175299.8010571301</v>
       </c>
       <c r="H1228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-165103.5212571301</v>
       </c>
       <c r="H1229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-165103.5212571301</v>
       </c>
       <c r="H1230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-167621.4336571301</v>
       </c>
       <c r="H1231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-173264.7612571301</v>
       </c>
       <c r="H1232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-171016.0123571301</v>
       </c>
       <c r="H1233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-174632.8086571301</v>
       </c>
       <c r="H1234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-174632.8086571301</v>
       </c>
       <c r="H1235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-164529.0912571301</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-164529.0912571301</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-165241.7823571301</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-165241.7823571301</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-165241.7823571301</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-165241.7823571301</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-165419.8376571301</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-166305.0719571301</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 LUNA ohlcv.xlsx
@@ -11936,7 +11936,7 @@
         <v>-65580.2326000001</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-69980.44250000011</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-72625.0052000001</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-75818.6004000001</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-79494.1045000001</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-86201.55540000016</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-84383.97720000015</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-89899.68430000015</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-90077.77850000016</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-90077.77850000016</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-90077.77850000016</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-92793.33010000017</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-98833.46640000016</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-69158.96173964006</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-62030.86303964005</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-94141.80210956004</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-89924.38950956005</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-91739.03370956004</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-107587.63530956</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-102314.02830956</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-92434.02780956004</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-9565.36940956004</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-14295.00860956004</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-8231.349809560041</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-13310.14450956004</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-18355.11850956004</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-18535.34970956004</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-182526.0432571301</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-182704.2233571301</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-182600.4530571301</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-182867.6450571301</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-193122.0581571301</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-188984.2427571301</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-187888.9067571301</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-175738.3293571301</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-177311.0642571301</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-172519.3186571301</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-175299.8010571301</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-165103.5212571301</v>
       </c>
       <c r="H1229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-165103.5212571301</v>
       </c>
       <c r="H1230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-177389.4992571301</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-178391.7759571301</v>
       </c>
       <c r="H1251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
